--- a/tables/tbl-01-project-goals-and-objectives.xlsx
+++ b/tables/tbl-01-project-goals-and-objectives.xlsx
@@ -1,104 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-global-health-engineering/proposal-innovedum-2023/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A525A1-1916-C04B-A7A8-8C9AD7889FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>wp_id</t>
-  </si>
-  <si>
-    <t>wp</t>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>goal</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t>WP1 - Responsible AI use</t>
-  </si>
-  <si>
-    <t>Ensuring students use AI responsibly and effectively while developing their critical thinking, problem-solving and programming skills.</t>
-  </si>
-  <si>
-    <t>Integrate Large Language Models (LLMs) into lectures and require it as a mandatory tool in class.</t>
-  </si>
-  <si>
-    <t>Within 12 months after the project's start, other ETH classes apply a usage policy for LLMs and associated teaching modules.</t>
-  </si>
-  <si>
-    <t>WP2 - AI as a Tutor</t>
-  </si>
-  <si>
-    <t>Helping students navigate the overwhelming amount of information available online to receive solutions to their coding problems.</t>
-  </si>
-  <si>
-    <t>Use LLMs to provide code examples and support novices to find answers to programming tasks.</t>
-  </si>
-  <si>
-    <t>Ensure that 95% of AI-generated code examples and solutions are accurate, relevant, and helpful for novice programmers.</t>
-  </si>
-  <si>
-    <t>WP3 - Enhance Learning</t>
-  </si>
-  <si>
-    <t>Enhancing retrieval practice, improving student learning, and enriching the learning experience in a time-constraint environment.</t>
-  </si>
-  <si>
-    <t>Use LLMs to create low-stakes tests for formative assessments (faded examples/scaffolding, Parsons problems, multiple choice quizzes).</t>
-  </si>
-  <si>
-    <t>Reduce the required time for generating formative assessments for R programming concepts by 90%.</t>
-  </si>
-  <si>
-    <t>WP4 - Student Assesment</t>
-  </si>
-  <si>
-    <t>Applying the knowledge and skills gained throughout the course to analyze data, draw conclusions, and demonstrate programming proficiency in a time-limited exam setting that allows for using LLMs.</t>
-  </si>
-  <si>
-    <t>Develop a technical programming exam that allows students to use LLMs.</t>
-  </si>
-  <si>
-    <t>Achieve a grade distribution in the final exam where at least 70% of the students score between 5 and 6, with no more than 10% scoring the maximum grade of 6.</t>
+    <t xml:space="preserve">wp_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP1 - Responsible AI use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring students use AI responsibly and effectively while developing their critical thinking, problem-solving and programming skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate Large Language Models (LLMs) into lectures and require it as a mandatory tool in class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 12 months after the start of the project, a usage policy for LLMs and an associated teaching module is being re-used by other classes at ETH or beyond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP2 - AI as a Tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helping students navigate the overwhelming amount of information available online to receive solutions to their coding problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use LLMs to provide code examples and support novices to find answers to programming tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that 95% of AI-generated code examples and solutions are accurate, relevant, and helpful for novice programmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP3 - Enhance Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancing retrieval practice, improving student learning, and enriching the learning experience in a time-constrained environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use LLMs to create low-stakes tests for formative assessments (faded examples/scaffolding, Parsons problems, multiple choice quizzes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce the required time for generating formative assessments for R programming concepts by 90%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP4 - Student Assesment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applying the knowledge and skills gained throughout the course to analyse data, draw conclusions, and demonstrate programming proficiency in a time-limited exam setting that allows for the use of LLMs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop a technical programming exam that allows students to use LLMs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieve a grade distribution in the final exam where at least 80% of the students score between 5 and 6, with no more than 10% scoring the maximum grade of 6.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -126,23 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -424,40 +399,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -473,8 +440,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -490,8 +457,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -507,8 +474,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -526,6 +493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>